--- a/sputnik/personal/ee/115ee.xlsx
+++ b/sputnik/personal/ee/115ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -52,16 +52,22 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>начислены пени 148д</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +92,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -139,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -165,6 +178,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -225,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,9 +275,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,6 +310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -466,17 +486,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
@@ -491,7 +511,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -517,7 +537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43607</v>
       </c>
@@ -533,7 +553,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -547,7 +567,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43667</v>
       </c>
@@ -568,15 +588,15 @@
         <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>2168.67</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
         <v>2691.12</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="12">
         <v>2721.16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -598,7 +618,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43691</v>
       </c>
@@ -627,7 +647,7 @@
         <v>2447.02</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -649,7 +669,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43721</v>
       </c>
@@ -678,7 +698,7 @@
         <v>1643.09</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -700,7 +720,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43754</v>
       </c>
@@ -729,7 +749,7 @@
         <v>3822.77</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -751,7 +771,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43796</v>
       </c>
@@ -780,7 +800,7 @@
         <v>5298.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -802,7 +822,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43811</v>
       </c>
@@ -831,7 +851,7 @@
         <v>6091.36</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -853,7 +873,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43829</v>
       </c>
@@ -882,7 +902,7 @@
         <v>2919.85</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -904,27 +924,102 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="F18" s="9" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43979</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6826</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM(C18,-C16)</f>
+        <v>789</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="8">
+        <f>D18*E18</f>
+        <v>3542.61</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>4478.16</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4478.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3371</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM(C19,-C17)</f>
+        <v>385</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="8">
+        <f>D19*E19</f>
+        <v>935.55000000000007</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43979</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>483.64</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
-        <f>SUM(G4:G17)</f>
-        <v>24913.46</v>
-      </c>
-      <c r="H18" s="10">
-        <f>SUM(H4:H17)</f>
-        <v>24943.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="F19" s="9" t="s">
+      <c r="G21" s="10">
+        <f>SUM(G4:G20)</f>
+        <v>29875.26</v>
+      </c>
+      <c r="H21" s="10">
+        <f>SUM(H4:H20)</f>
+        <v>29421.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
-        <v>30.040000000000873</v>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10">
+        <f>SUM(H21,-G21)</f>
+        <v>-453.59999999999854</v>
       </c>
     </row>
   </sheetData>
@@ -935,12 +1030,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,12 +1044,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/115ee.xlsx
+++ b/sputnik/personal/ee/115ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,7 +833,7 @@
         <v>5522</v>
       </c>
       <c r="D14" s="2">
-        <f>SUM(C14,-C12)</f>
+        <f t="shared" ref="D14:D22" si="3">SUM(C14,-C12)</f>
         <v>1046</v>
       </c>
       <c r="E14" s="6">
@@ -860,7 +860,7 @@
         <v>2736</v>
       </c>
       <c r="D15" s="2">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" si="3"/>
         <v>574</v>
       </c>
       <c r="E15" s="6">
@@ -884,7 +884,7 @@
         <v>6037</v>
       </c>
       <c r="D16" s="2">
-        <f>SUM(C16,-C14)</f>
+        <f t="shared" si="3"/>
         <v>515</v>
       </c>
       <c r="E16" s="6">
@@ -911,7 +911,7 @@
         <v>2986</v>
       </c>
       <c r="D17" s="2">
-        <f>SUM(C17,-C15)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="E17" s="6">
@@ -935,7 +935,7 @@
         <v>6826</v>
       </c>
       <c r="D18" s="2">
-        <f>SUM(C18,-C16)</f>
+        <f t="shared" si="3"/>
         <v>789</v>
       </c>
       <c r="E18" s="6">
@@ -962,7 +962,7 @@
         <v>3371</v>
       </c>
       <c r="D19" s="2">
-        <f>SUM(C19,-C17)</f>
+        <f t="shared" si="3"/>
         <v>385</v>
       </c>
       <c r="E19" s="6">
@@ -1000,25 +1000,76 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="9" t="s">
+      <c r="A21" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7328</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM(C21,-C18)</f>
+        <v>502</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F21" s="8">
+        <f>D21*E21</f>
+        <v>2253.98</v>
+      </c>
+      <c r="G21" s="10">
+        <f>SUM(F21,F22)</f>
+        <v>2902.79</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2902.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3638</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(C22,-C19)</f>
+        <v>267</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F22" s="8">
+        <f>D22*E22</f>
+        <v>648.81000000000006</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G23" s="10">
         <f>SUM(G4:G20)</f>
         <v>29875.26</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H23" s="10">
         <f>SUM(H4:H20)</f>
         <v>29421.66</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="9" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10">
-        <f>SUM(H21,-G21)</f>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10">
+        <f>SUM(H23,-G23)</f>
         <v>-453.59999999999854</v>
       </c>
     </row>

--- a/sputnik/personal/ee/115ee.xlsx
+++ b/sputnik/personal/ee/115ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>начислены пени 148д</t>
+  </si>
+  <si>
+    <t>начислены пени 132д</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,6 +186,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -490,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,7 +837,7 @@
         <v>5522</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D22" si="3">SUM(C14,-C12)</f>
+        <f t="shared" ref="D14:D19" si="3">SUM(C14,-C12)</f>
         <v>1046</v>
       </c>
       <c r="E14" s="6">
@@ -1051,32 +1055,161 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="9" t="s">
+      <c r="A23" s="3">
+        <v>44158</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8492</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM(C23,-C21)</f>
+        <v>1164</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F23" s="8">
+        <f>D23*E23</f>
+        <v>5482.44</v>
+      </c>
+      <c r="G23" s="10">
+        <f>SUM(F23,F24)</f>
+        <v>7114.44</v>
+      </c>
+      <c r="H23" s="9">
+        <v>6781.56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4278</v>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM(C24,-C22)</f>
+        <v>640</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F24" s="8">
+        <f>D24*E24</f>
+        <v>1632</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44158</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>623.9</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44160</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8903</v>
+      </c>
+      <c r="D26" s="2">
+        <f>SUM(C26,-C23)</f>
+        <v>411</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="8">
+        <f>D26*E26</f>
+        <v>1935.81</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>2374.41</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2374.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4450</v>
+      </c>
+      <c r="D27" s="2">
+        <f>SUM(C27,-C24)</f>
+        <v>172</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="8">
+        <f>D27*E27</f>
+        <v>438.59999999999997</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="10">
-        <f>SUM(G4:G20)</f>
-        <v>29875.26</v>
-      </c>
-      <c r="H23" s="10">
-        <f>SUM(H4:H20)</f>
-        <v>29421.66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="9" t="s">
+      <c r="G28" s="10">
+        <f>SUM(G4:G25)</f>
+        <v>40516.39</v>
+      </c>
+      <c r="H28" s="10">
+        <f>SUM(H4:H25)</f>
+        <v>39106.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10">
-        <f>SUM(H23,-G23)</f>
-        <v>-453.59999999999854</v>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10">
+        <f>SUM(H28,-G28)</f>
+        <v>-1410.3799999999974</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D23" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/115ee.xlsx
+++ b/sputnik/personal/ee/115ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -70,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +106,26 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -155,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -181,12 +194,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,18 +575,18 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43607</v>
+        <v>43829</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1620</v>
+        <v>6037</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -563,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>895</v>
+        <v>2986</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="6"/>
@@ -573,31 +605,31 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43667</v>
+        <v>43979</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>2103</v>
+        <v>6826</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(C4,-C2)</f>
-        <v>483</v>
+        <v>789</v>
       </c>
       <c r="E4" s="6">
         <v>4.49</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
-        <v>2168.67</v>
-      </c>
-      <c r="G4" s="11">
+        <f>D4*E4</f>
+        <v>3542.61</v>
+      </c>
+      <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>2691.12</v>
-      </c>
-      <c r="H4" s="12">
-        <v>2721.16</v>
+        <v>4478.16</v>
+      </c>
+      <c r="H4" s="9">
+        <v>4478.16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -606,202 +638,199 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1110</v>
+        <v>3371</v>
       </c>
       <c r="D5" s="2">
         <f>SUM(C5,-C3)</f>
-        <v>215</v>
+        <v>385</v>
       </c>
       <c r="E5" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>522.45000000000005</v>
+        <f>D5*E5</f>
+        <v>935.55000000000007</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>43691</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2543</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D13" si="1">SUM(C6,-C4)</f>
-        <v>440</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="A6" s="11">
+        <v>43979</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>483.64</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7328</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(C7,-C4)</f>
+        <v>502</v>
+      </c>
+      <c r="E7" s="6">
         <v>4.49</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>1975.6000000000001</v>
-      </c>
-      <c r="G6" s="10">
-        <f>SUM(F6,F7)</f>
-        <v>2447.02</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2447.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="F7" s="8">
+        <f>D7*E7</f>
+        <v>2253.98</v>
+      </c>
+      <c r="G7" s="10">
+        <f>SUM(F7,F8)</f>
+        <v>2902.79</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2902.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>1304</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>194</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C8" s="2">
+        <v>3638</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C5)</f>
+        <v>267</v>
+      </c>
+      <c r="E8" s="6">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>471.42</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43721</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2844</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.49</v>
-      </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>1351.49</v>
-      </c>
-      <c r="G8" s="10">
-        <f>SUM(F8,F9)</f>
-        <v>1643.0900000000001</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1643.09</v>
-      </c>
+        <f>D8*E8</f>
+        <v>648.81000000000006</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>44158</v>
+      </c>
       <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8492</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C7)</f>
+        <v>1164</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="8">
+        <f>D9*E9</f>
+        <v>5482.44</v>
+      </c>
+      <c r="G9" s="17">
+        <f>SUM(F9,F10)</f>
+        <v>7114.44</v>
+      </c>
+      <c r="H9" s="18">
+        <v>6781.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
-        <v>1424</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>291.60000000000002</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43754</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C10" s="2">
-        <v>3526</v>
+        <v>4278</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>682</v>
+        <f>SUM(C10,-C8)</f>
+        <v>640</v>
       </c>
       <c r="E10" s="6">
-        <v>4.49</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F15" si="2">D10*E10</f>
-        <v>3062.1800000000003</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM(F10,F11)</f>
-        <v>3822.7700000000004</v>
-      </c>
-      <c r="H10" s="9">
-        <v>3822.77</v>
-      </c>
+        <f>D10*E10</f>
+        <v>1632</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1737</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>313</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="2"/>
-        <v>760.59</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="A11" s="11">
+        <v>44158</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>654.53</v>
+      </c>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43796</v>
+        <v>44160</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>4476</v>
+        <v>8903</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>950</v>
+        <f>SUM(C12,-C9)</f>
+        <v>411</v>
       </c>
       <c r="E12" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="2"/>
-        <v>4265.5</v>
+        <f>D12*E12</f>
+        <v>1935.81</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>5298.25</v>
+        <v>2374.41</v>
       </c>
       <c r="H12" s="9">
-        <v>5298.25</v>
+        <v>2374.41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,49 +839,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>2162</v>
+        <v>4450</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>425</v>
+        <f>SUM(C13,-C10)</f>
+        <v>172</v>
       </c>
       <c r="E13" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="2"/>
-        <v>1032.75</v>
+        <f>D13*E13</f>
+        <v>438.59999999999997</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43811</v>
+        <v>44172</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>5522</v>
+        <v>9518</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D19" si="3">SUM(C14,-C12)</f>
-        <v>1046</v>
+        <f>SUM(C14,-C12)</f>
+        <v>615</v>
       </c>
       <c r="E14" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="2"/>
-        <v>4696.54</v>
+        <f>D14*E14</f>
+        <v>2896.65</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>6091.3600000000006</v>
+        <v>3707.55</v>
       </c>
       <c r="H14" s="9">
-        <v>6091.36</v>
+        <v>3707.55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -861,354 +890,77 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>2736</v>
+        <v>4768</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
-        <v>574</v>
+        <f>SUM(C15,-C13)</f>
+        <v>318</v>
       </c>
       <c r="E15" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="2"/>
-        <v>1394.8200000000002</v>
+        <f>D15*E15</f>
+        <v>810.9</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>43829</v>
+      <c r="A16" s="19">
+        <v>44190</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2">
-        <v>6037</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="3"/>
-        <v>515</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4.49</v>
+      <c r="C16" s="20">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f>D16*E16</f>
-        <v>2312.35</v>
-      </c>
-      <c r="G16" s="10">
-        <f>SUM(F16,F17)</f>
-        <v>2919.85</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>2919.85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2986</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="8">
-        <f>D17*E17</f>
-        <v>607.5</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>43979</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>6826</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="3"/>
-        <v>789</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="8">
-        <f>D18*E18</f>
-        <v>3542.61</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM(F18,F19)</f>
-        <v>4478.16</v>
-      </c>
-      <c r="H18" s="9">
-        <v>4478.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3371</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="3"/>
-        <v>385</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="8">
-        <f>D19*E19</f>
-        <v>935.55000000000007</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>43979</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>483.64</v>
-      </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>44025</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>7328</v>
-      </c>
-      <c r="D21" s="2">
-        <f>SUM(C21,-C18)</f>
-        <v>502</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F21" s="8">
-        <f>D21*E21</f>
-        <v>2253.98</v>
-      </c>
-      <c r="G21" s="10">
-        <f>SUM(F21,F22)</f>
-        <v>2902.79</v>
-      </c>
-      <c r="H21" s="9">
-        <v>2902.79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3638</v>
-      </c>
-      <c r="D22" s="2">
-        <f>SUM(C22,-C19)</f>
-        <v>267</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F22" s="8">
-        <f>D22*E22</f>
-        <v>648.81000000000006</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>44158</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8492</v>
-      </c>
-      <c r="D23" s="2">
-        <f>SUM(C23,-C21)</f>
-        <v>1164</v>
-      </c>
-      <c r="E23" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F23" s="8">
-        <f>D23*E23</f>
-        <v>5482.44</v>
-      </c>
-      <c r="G23" s="10">
-        <f>SUM(F23,F24)</f>
-        <v>7114.44</v>
-      </c>
-      <c r="H23" s="9">
-        <v>6781.56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4278</v>
-      </c>
-      <c r="D24" s="2">
-        <f>SUM(C24,-C22)</f>
-        <v>640</v>
-      </c>
-      <c r="E24" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F24" s="8">
-        <f>D24*E24</f>
-        <v>1632</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>44158</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14">
-        <v>623.9</v>
-      </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>44160</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <v>8903</v>
-      </c>
-      <c r="D26" s="2">
-        <f>SUM(C26,-C23)</f>
-        <v>411</v>
-      </c>
-      <c r="E26" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F26" s="8">
-        <f>D26*E26</f>
-        <v>1935.81</v>
-      </c>
-      <c r="G26" s="10">
-        <f>SUM(F26,F27)</f>
-        <v>2374.41</v>
-      </c>
-      <c r="H26" s="9">
-        <v>2374.41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4450</v>
-      </c>
-      <c r="D27" s="2">
-        <f>SUM(C27,-C24)</f>
-        <v>172</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F27" s="8">
-        <f>D27*E27</f>
-        <v>438.59999999999997</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="9" t="s">
+        <v>1440.42</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="10">
-        <f>SUM(G4:G25)</f>
-        <v>40516.39</v>
-      </c>
-      <c r="H28" s="10">
-        <f>SUM(H4:H25)</f>
-        <v>39106.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="9" t="s">
+      <c r="G17" s="10">
+        <f>SUM(G2:G16)</f>
+        <v>21715.52</v>
+      </c>
+      <c r="H17" s="10">
+        <f>SUM(H2:H16)</f>
+        <v>21684.89</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10">
-        <f>SUM(H28,-G28)</f>
-        <v>-1410.3799999999974</v>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
+        <f>SUM(H17,-G17)</f>
+        <v>-30.630000000001019</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D23" formula="1"/>
+    <ignoredError sqref="D9" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/sputnik/personal/ee/115ee.xlsx
+++ b/sputnik/personal/ee/115ee.xlsx
@@ -114,7 +114,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +124,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -210,15 +216,20 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -529,7 +540,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,20 +585,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>43829</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6037</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="19">
+        <v>44172</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20">
+        <v>9518</v>
+      </c>
+      <c r="D2" s="20">
+        <f>SUM(C2,-C4)</f>
+        <v>615</v>
+      </c>
+      <c r="E2" s="21">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="22">
+        <f>D2*E2</f>
+        <v>2896.65</v>
+      </c>
+      <c r="G2" s="23">
+        <f>SUM(F2,F3)</f>
+        <v>3707.55</v>
+      </c>
+      <c r="H2" s="24">
+        <v>3707.55</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -595,41 +619,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>2986</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="8"/>
+        <v>4768</v>
+      </c>
+      <c r="D3" s="2">
+        <f>SUM(C3,-C5)</f>
+        <v>318</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="8">
+        <f>D3*E3</f>
+        <v>810.9</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43979</v>
+        <v>44160</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>6826</v>
+        <v>8903</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
-        <v>789</v>
+        <f>SUM(C4,-C7)</f>
+        <v>411</v>
       </c>
       <c r="E4" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f>D4*E4</f>
-        <v>3542.61</v>
+        <v>1935.81</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>4478.16</v>
+        <v>2374.41</v>
       </c>
       <c r="H4" s="9">
-        <v>4478.16</v>
+        <v>2374.41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,25 +670,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>3371</v>
+        <v>4450</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C3)</f>
-        <v>385</v>
+        <f>SUM(C5,-C8)</f>
+        <v>172</v>
       </c>
       <c r="E5" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f>D5*E5</f>
-        <v>935.55000000000007</v>
+        <v>438.59999999999997</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>43979</v>
+        <v>44158</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>12</v>
@@ -665,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="12">
         <v>0</v>
@@ -673,38 +705,38 @@
       <c r="F6" s="14">
         <v>0</v>
       </c>
-      <c r="G6" s="15">
-        <v>483.64</v>
+      <c r="G6" s="16">
+        <v>654.53</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44025</v>
+        <v>44158</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>7328</v>
+        <v>8492</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C4)</f>
-        <v>502</v>
+        <f>SUM(C7,-C9)</f>
+        <v>1164</v>
       </c>
       <c r="E7" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F7" s="8">
         <f>D7*E7</f>
-        <v>2253.98</v>
-      </c>
-      <c r="G7" s="10">
+        <v>5482.44</v>
+      </c>
+      <c r="G7" s="17">
         <f>SUM(F7,F8)</f>
-        <v>2902.79</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2902.79</v>
+        <v>7114.44</v>
+      </c>
+      <c r="H7" s="18">
+        <v>6781.56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -713,49 +745,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>3638</v>
+        <v>4278</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C5)</f>
-        <v>267</v>
+        <f>SUM(C8,-C10)</f>
+        <v>640</v>
       </c>
       <c r="E8" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F8" s="8">
         <f>D8*E8</f>
-        <v>648.81000000000006</v>
+        <v>1632</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44158</v>
+        <v>44025</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>8492</v>
+        <v>7328</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C7)</f>
-        <v>1164</v>
+        <f>SUM(C9,-C12)</f>
+        <v>502</v>
       </c>
       <c r="E9" s="6">
-        <v>4.71</v>
+        <v>4.49</v>
       </c>
       <c r="F9" s="8">
         <f>D9*E9</f>
-        <v>5482.44</v>
-      </c>
-      <c r="G9" s="17">
+        <v>2253.98</v>
+      </c>
+      <c r="G9" s="10">
         <f>SUM(F9,F10)</f>
-        <v>7114.44</v>
-      </c>
-      <c r="H9" s="18">
-        <v>6781.56</v>
+        <v>2902.79</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2902.79</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -764,25 +796,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>4278</v>
+        <v>3638</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(C10,-C8)</f>
-        <v>640</v>
+        <f>SUM(C10,-C13)</f>
+        <v>267</v>
       </c>
       <c r="E10" s="6">
-        <v>2.5499999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F10" s="8">
         <f>D10*E10</f>
-        <v>1632</v>
+        <v>648.81000000000006</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>44158</v>
+        <v>43979</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
@@ -791,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -799,38 +831,38 @@
       <c r="F11" s="14">
         <v>0</v>
       </c>
-      <c r="G11" s="16">
-        <v>654.53</v>
+      <c r="G11" s="15">
+        <v>483.64</v>
       </c>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44160</v>
+        <v>43979</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>8903</v>
+        <v>6826</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C9)</f>
-        <v>411</v>
+        <f>SUM(C12,-C14)</f>
+        <v>789</v>
       </c>
       <c r="E12" s="6">
-        <v>4.71</v>
+        <v>4.49</v>
       </c>
       <c r="F12" s="8">
         <f>D12*E12</f>
-        <v>1935.81</v>
+        <v>3542.61</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>2374.41</v>
+        <v>4478.16</v>
       </c>
       <c r="H12" s="9">
-        <v>2374.41</v>
+        <v>4478.16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -839,50 +871,37 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>4450</v>
+        <v>3371</v>
       </c>
       <c r="D13" s="2">
-        <f>SUM(C13,-C10)</f>
-        <v>172</v>
+        <f>SUM(C13,-C15)</f>
+        <v>385</v>
       </c>
       <c r="E13" s="6">
-        <v>2.5499999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="8">
         <f>D13*E13</f>
-        <v>438.59999999999997</v>
+        <v>935.55000000000007</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44172</v>
+        <v>43829</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>9518</v>
-      </c>
-      <c r="D14" s="2">
-        <f>SUM(C14,-C12)</f>
-        <v>615</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="8">
-        <f>D14*E14</f>
-        <v>2896.65</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>3707.55</v>
-      </c>
-      <c r="H14" s="9">
-        <v>3707.55</v>
-      </c>
+        <v>6037</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -890,36 +909,28 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>4768</v>
-      </c>
-      <c r="D15" s="2">
-        <f>SUM(C15,-C13)</f>
-        <v>318</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="8">
-        <f>D15*E15</f>
-        <v>810.9</v>
-      </c>
+        <v>2986</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="3">
         <v>44190</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="21">
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="8">
@@ -959,9 +970,6 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D9" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/115ee.xlsx
+++ b/sputnik/personal/ee/115ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>начислены пени 132д</t>
+  </si>
+  <si>
+    <t>пени</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -230,6 +239,20 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,10 +560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -586,7 +609,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
-        <v>44172</v>
+        <v>44190</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>0</v>
@@ -596,21 +619,20 @@
       </c>
       <c r="D2" s="20">
         <f>SUM(C2,-C4)</f>
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="E2" s="21">
         <v>4.71</v>
       </c>
-      <c r="F2" s="22">
-        <f>D2*E2</f>
-        <v>2896.65</v>
+      <c r="F2" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="G2" s="23">
         <f>SUM(F2,F3)</f>
-        <v>3707.55</v>
+        <v>0</v>
       </c>
       <c r="H2" s="24">
-        <v>3707.55</v>
+        <v>1440.42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -623,171 +645,171 @@
       </c>
       <c r="D3" s="2">
         <f>SUM(C3,-C5)</f>
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f>D3*E3</f>
-        <v>810.9</v>
+        <v>0</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="25">
+        <v>44172</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>9518</v>
+      </c>
+      <c r="D4" s="26">
+        <f>SUM(C4,-C6)</f>
+        <v>615</v>
+      </c>
+      <c r="E4" s="27">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="28">
+        <f>D4*E4</f>
+        <v>2896.65</v>
+      </c>
+      <c r="G4" s="29">
+        <f>SUM(F4,F5)</f>
+        <v>3707.55</v>
+      </c>
+      <c r="H4" s="30">
+        <v>3707.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
+        <v>4768</v>
+      </c>
+      <c r="D5" s="26">
+        <f>SUM(C5,-C7)</f>
+        <v>318</v>
+      </c>
+      <c r="E5" s="27">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="28">
+        <f>D5*E5</f>
+        <v>810.9</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>44160</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>8903</v>
       </c>
-      <c r="D4" s="2">
-        <f>SUM(C4,-C7)</f>
+      <c r="D6" s="2">
+        <f>SUM(C6,-C9)</f>
         <v>411</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E6" s="6">
         <v>4.71</v>
       </c>
-      <c r="F4" s="8">
-        <f>D4*E4</f>
+      <c r="F6" s="8">
+        <f>D6*E6</f>
         <v>1935.81</v>
       </c>
-      <c r="G4" s="10">
-        <f>SUM(F4,F5)</f>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
         <v>2374.41</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H6" s="9">
         <v>2374.41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
         <v>4450</v>
       </c>
-      <c r="D5" s="2">
-        <f>SUM(C5,-C8)</f>
+      <c r="D7" s="2">
+        <f>SUM(C7,-C10)</f>
         <v>172</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E7" s="6">
         <v>2.5499999999999998</v>
-      </c>
-      <c r="F5" s="8">
-        <f>D5*E5</f>
-        <v>438.59999999999997</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>44158</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>654.53</v>
-      </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>44158</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8492</v>
-      </c>
-      <c r="D7" s="2">
-        <f>SUM(C7,-C9)</f>
-        <v>1164</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4.71</v>
       </c>
       <c r="F7" s="8">
         <f>D7*E7</f>
-        <v>5482.44</v>
-      </c>
-      <c r="G7" s="17">
-        <f>SUM(F7,F8)</f>
-        <v>7114.44</v>
-      </c>
-      <c r="H7" s="18">
-        <v>6781.56</v>
-      </c>
+        <v>438.59999999999997</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4278</v>
-      </c>
-      <c r="D8" s="2">
-        <f>SUM(C8,-C10)</f>
-        <v>640</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F8" s="8">
-        <f>D8*E8</f>
-        <v>1632</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="A8" s="11">
+        <v>44158</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>654.53</v>
+      </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44025</v>
+        <v>44158</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>7328</v>
+        <v>8492</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C12)</f>
-        <v>502</v>
+        <f>SUM(C9,-C11)</f>
+        <v>1164</v>
       </c>
       <c r="E9" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F9" s="8">
         <f>D9*E9</f>
-        <v>2253.98</v>
-      </c>
-      <c r="G9" s="10">
+        <v>5482.44</v>
+      </c>
+      <c r="G9" s="17">
         <f>SUM(F9,F10)</f>
-        <v>2902.79</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2902.79</v>
+        <v>7114.44</v>
+      </c>
+      <c r="H9" s="18">
+        <v>6781.56</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -796,112 +818,125 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>3638</v>
+        <v>4278</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(C10,-C13)</f>
-        <v>267</v>
+        <f>SUM(C10,-C12)</f>
+        <v>640</v>
       </c>
       <c r="E10" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F10" s="8">
         <f>D10*E10</f>
-        <v>648.81000000000006</v>
+        <v>1632</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>43979</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>483.64</v>
-      </c>
-      <c r="H11" s="9"/>
+      <c r="A11" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7328</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(C11,-C14)</f>
+        <v>502</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F11" s="8">
+        <f>D11*E11</f>
+        <v>2253.98</v>
+      </c>
+      <c r="G11" s="10">
+        <f>SUM(F11,F12)</f>
+        <v>2902.79</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2902.79</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>43979</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>6826</v>
+        <v>3638</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C14)</f>
-        <v>789</v>
+        <f>SUM(C12,-C15)</f>
+        <v>267</v>
       </c>
       <c r="E12" s="6">
-        <v>4.49</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F12" s="8">
         <f>D12*E12</f>
-        <v>3542.61</v>
-      </c>
-      <c r="G12" s="10">
-        <f>SUM(F12,F13)</f>
-        <v>4478.16</v>
-      </c>
-      <c r="H12" s="9">
-        <v>4478.16</v>
-      </c>
+        <v>648.81000000000006</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3371</v>
-      </c>
-      <c r="D13" s="2">
-        <f>SUM(C13,-C15)</f>
-        <v>385</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="8">
-        <f>D13*E13</f>
-        <v>935.55000000000007</v>
-      </c>
-      <c r="G13" s="9"/>
+      <c r="A13" s="11">
+        <v>43979</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>483.64</v>
+      </c>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43829</v>
+        <v>43979</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>6037</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
+        <v>6826</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(C14,-C16)</f>
+        <v>789</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f>D14*E14</f>
+        <v>3542.61</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>4478.16</v>
+      </c>
+      <c r="H14" s="9">
+        <v>4478.16</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -909,60 +944,82 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>2986</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8"/>
+        <v>3371</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(C15,-C17)</f>
+        <v>385</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f>D15*E15</f>
+        <v>935.55000000000007</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44190</v>
+        <v>43829</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1440.42</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="9" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2986</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="10">
-        <f>SUM(G2:G16)</f>
+      <c r="G19" s="10">
+        <f>SUM(G2:G18)</f>
         <v>21715.52</v>
       </c>
-      <c r="H17" s="10">
-        <f>SUM(H2:H16)</f>
+      <c r="H19" s="10">
+        <f>SUM(H2:H18)</f>
         <v>21684.89</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="9" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10">
-        <f>SUM(H17,-G17)</f>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10">
+        <f>SUM(H19,-G19)</f>
         <v>-30.630000000001019</v>
       </c>
     </row>

--- a/sputnik/personal/ee/115ee.xlsx
+++ b/sputnik/personal/ee/115ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>пени</t>
+  </si>
+  <si>
+    <t>начислены пени 239д</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -225,20 +234,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,6 +248,27 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -560,10 +576,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G3" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -607,209 +623,209 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>44412</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="33">
+        <v>2409.4499999999998</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>44412</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>10607</v>
+      </c>
+      <c r="D3" s="32">
+        <f t="shared" ref="D3:D8" si="0">SUM(C3,-C5)</f>
+        <v>1089</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4.96</v>
+      </c>
+      <c r="F3" s="22">
+        <f>D3*E3</f>
+        <v>5401.44</v>
+      </c>
+      <c r="G3" s="31">
+        <f>SUM(F3,F4)</f>
+        <v>6758.0399999999991</v>
+      </c>
+      <c r="H3" s="24">
+        <v>12107.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20">
+        <v>5300</v>
+      </c>
+      <c r="D4" s="32">
+        <f t="shared" si="0"/>
+        <v>532</v>
+      </c>
+      <c r="E4" s="21">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F4" s="22">
+        <f>D4*E4</f>
+        <v>1356.6</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>44190</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="B5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27">
         <v>9518</v>
       </c>
-      <c r="D2" s="20">
-        <f>SUM(C2,-C4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="D5" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
         <v>4.71</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="23">
-        <f>SUM(F2,F3)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="24">
+      <c r="G5" s="29">
+        <f>SUM(F5,F6)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
         <v>1440.42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C6" s="2">
         <v>4768</v>
       </c>
-      <c r="D3" s="2">
-        <f>SUM(C3,-C5)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
         <v>2.5499999999999998</v>
-      </c>
-      <c r="F3" s="8">
-        <f>D3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <v>44172</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="26">
-        <v>9518</v>
-      </c>
-      <c r="D4" s="26">
-        <f>SUM(C4,-C6)</f>
-        <v>615</v>
-      </c>
-      <c r="E4" s="27">
-        <v>4.71</v>
-      </c>
-      <c r="F4" s="28">
-        <f>D4*E4</f>
-        <v>2896.65</v>
-      </c>
-      <c r="G4" s="29">
-        <f>SUM(F4,F5)</f>
-        <v>3707.55</v>
-      </c>
-      <c r="H4" s="30">
-        <v>3707.55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26">
-        <v>4768</v>
-      </c>
-      <c r="D5" s="26">
-        <f>SUM(C5,-C7)</f>
-        <v>318</v>
-      </c>
-      <c r="E5" s="27">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F5" s="28">
-        <f>D5*E5</f>
-        <v>810.9</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>44160</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8903</v>
-      </c>
-      <c r="D6" s="2">
-        <f>SUM(C6,-C9)</f>
-        <v>411</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f>D6*E6</f>
-        <v>1935.81</v>
-      </c>
-      <c r="G6" s="10">
-        <f>SUM(F6,F7)</f>
-        <v>2374.41</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2374.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="19">
+        <v>44172</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>9518</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="0"/>
+        <v>615</v>
+      </c>
+      <c r="E7" s="21">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="22">
+        <f>D7*E7</f>
+        <v>2896.65</v>
+      </c>
+      <c r="G7" s="23">
+        <f>SUM(F7,F8)</f>
+        <v>3707.55</v>
+      </c>
+      <c r="H7" s="24">
+        <v>3707.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>4450</v>
-      </c>
-      <c r="D7" s="2">
-        <f>SUM(C7,-C10)</f>
-        <v>172</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C8" s="20">
+        <v>4768</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="E8" s="21">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F7" s="8">
-        <f>D7*E7</f>
-        <v>438.59999999999997</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>44158</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>654.53</v>
-      </c>
-      <c r="H8" s="9"/>
+      <c r="F8" s="22">
+        <f>D8*E8</f>
+        <v>810.9</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>8492</v>
+        <v>8903</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C11)</f>
-        <v>1164</v>
+        <f>SUM(C9,-C12)</f>
+        <v>411</v>
       </c>
       <c r="E9" s="6">
         <v>4.71</v>
       </c>
       <c r="F9" s="8">
         <f>D9*E9</f>
-        <v>5482.44</v>
-      </c>
-      <c r="G9" s="17">
+        <v>1935.81</v>
+      </c>
+      <c r="G9" s="10">
         <f>SUM(F9,F10)</f>
-        <v>7114.44</v>
-      </c>
-      <c r="H9" s="18">
-        <v>6781.56</v>
+        <v>2374.41</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2374.41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,124 +834,124 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>4278</v>
+        <v>4450</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(C10,-C12)</f>
-        <v>640</v>
+        <f>SUM(C10,-C13)</f>
+        <v>172</v>
       </c>
       <c r="E10" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F10" s="8">
         <f>D10*E10</f>
-        <v>1632</v>
+        <v>438.59999999999997</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>44025</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7328</v>
-      </c>
-      <c r="D11" s="2">
-        <f>SUM(C11,-C14)</f>
-        <v>502</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="8">
-        <f>D11*E11</f>
-        <v>2253.98</v>
-      </c>
-      <c r="G11" s="10">
-        <f>SUM(F11,F12)</f>
-        <v>2902.79</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2902.79</v>
-      </c>
+      <c r="A11" s="11">
+        <v>44158</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>654.53</v>
+      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3">
+        <v>44158</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>3638</v>
+        <v>8492</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C15)</f>
-        <v>267</v>
+        <f>SUM(C12,-C14)</f>
+        <v>1164</v>
       </c>
       <c r="E12" s="6">
-        <v>2.4300000000000002</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f>D12*E12</f>
-        <v>648.81000000000006</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+        <v>5482.44</v>
+      </c>
+      <c r="G12" s="17">
+        <f>SUM(F12,F13)</f>
+        <v>7114.44</v>
+      </c>
+      <c r="H12" s="18">
+        <v>6781.56</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>43979</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>483.64</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4278</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(C13,-C15)</f>
+        <v>640</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f>D13*E13</f>
+        <v>1632</v>
+      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43979</v>
+        <v>44025</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>6826</v>
+        <v>7328</v>
       </c>
       <c r="D14" s="2">
-        <f>SUM(C14,-C16)</f>
-        <v>789</v>
+        <f>SUM(C14,-C17)</f>
+        <v>502</v>
       </c>
       <c r="E14" s="6">
         <v>4.49</v>
       </c>
       <c r="F14" s="8">
         <f>D14*E14</f>
-        <v>3542.61</v>
+        <v>2253.98</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>4478.16</v>
+        <v>2902.79</v>
       </c>
       <c r="H14" s="9">
-        <v>4478.16</v>
+        <v>2902.79</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -944,83 +960,158 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>3371</v>
+        <v>3638</v>
       </c>
       <c r="D15" s="2">
-        <f>SUM(C15,-C17)</f>
-        <v>385</v>
+        <f>SUM(C15,-C18)</f>
+        <v>267</v>
       </c>
       <c r="E15" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="8">
         <f>D15*E15</f>
-        <v>935.55000000000007</v>
+        <v>648.81000000000006</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>43829</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6037</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
+      <c r="A16" s="11">
+        <v>43979</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>483.64</v>
+      </c>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3">
+        <v>43979</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>2986</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+        <v>6826</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM(C17,-C19)</f>
+        <v>789</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F17" s="8">
+        <f>D17*E17</f>
+        <v>3542.61</v>
+      </c>
+      <c r="G17" s="10">
+        <f>SUM(F17,F18)</f>
+        <v>4478.16</v>
+      </c>
+      <c r="H17" s="9">
+        <v>4478.16</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3371</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM(C18,-C20)</f>
+        <v>385</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F18" s="8">
+        <f>D18*E18</f>
+        <v>935.55000000000007</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="9" t="s">
+      <c r="A19" s="3">
+        <v>43829</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6037</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2986</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="10">
-        <f>SUM(G2:G18)</f>
-        <v>21715.52</v>
-      </c>
-      <c r="H19" s="10">
-        <f>SUM(H2:H18)</f>
-        <v>21684.89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="9" t="s">
+      <c r="G22" s="10">
+        <f>SUM(G2:G21)</f>
+        <v>30883.01</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H2:H21)</f>
+        <v>33792.680000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10">
-        <f>SUM(H19,-G19)</f>
-        <v>-30.630000000001019</v>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
+        <v>2909.6700000000092</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/115ee.xlsx
+++ b/sputnik/personal/ee/115ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Т1</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>начислены пени 239д</t>
+  </si>
+  <si>
+    <t>начислены пени 133 кд</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G2:G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -623,9 +626,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <v>44412</v>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>44533</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>12</v>
@@ -634,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
@@ -643,264 +646,264 @@
         <v>0</v>
       </c>
       <c r="G2" s="33">
-        <v>2409.4499999999998</v>
+        <v>731.33</v>
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
-        <v>44412</v>
+        <v>44533</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="20">
-        <v>10607</v>
+        <v>11550</v>
       </c>
       <c r="D3" s="32">
-        <f t="shared" ref="D3:D8" si="0">SUM(C3,-C5)</f>
-        <v>1089</v>
+        <f>SUM(C3,-C6)</f>
+        <v>943</v>
       </c>
       <c r="E3" s="21">
         <v>4.96</v>
       </c>
       <c r="F3" s="22">
         <f>D3*E3</f>
-        <v>5401.44</v>
+        <v>4677.28</v>
       </c>
       <c r="G3" s="31">
         <f>SUM(F3,F4)</f>
-        <v>6758.0399999999991</v>
+        <v>7863.7999999999993</v>
       </c>
       <c r="H3" s="24">
-        <v>12107.79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7473.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="20">
+        <v>6489</v>
+      </c>
+      <c r="D4" s="32">
+        <f>SUM(C4,-C7)</f>
+        <v>1189</v>
+      </c>
+      <c r="E4" s="21">
+        <v>2.68</v>
+      </c>
+      <c r="F4" s="22">
+        <f>D4*E4</f>
+        <v>3186.52</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>44412</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33">
+        <v>2409.4499999999998</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>44412</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20">
+        <v>10607</v>
+      </c>
+      <c r="D6" s="32">
+        <f t="shared" ref="D6:D11" si="0">SUM(C6,-C8)</f>
+        <v>1089</v>
+      </c>
+      <c r="E6" s="21">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="22">
+        <f>D6*E6</f>
+        <v>5401.44</v>
+      </c>
+      <c r="G6" s="31">
+        <f>SUM(F6,F7)</f>
+        <v>6827.2</v>
+      </c>
+      <c r="H6" s="24">
+        <v>12107.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20">
         <v>5300</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D7" s="32">
         <f t="shared" si="0"/>
         <v>532</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E7" s="21">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="22">
+        <f>D7*E7</f>
+        <v>1425.76</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>44190</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>9518</v>
+      </c>
+      <c r="D8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="29">
+        <f>SUM(F8,F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
+        <v>1440.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4768</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F4" s="22">
-        <f>D4*E4</f>
-        <v>1356.6</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <v>44190</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="F9" s="8">
+        <f>D9*E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>44172</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
         <v>9518</v>
       </c>
-      <c r="D5" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="27">
-        <v>4.71</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="29">
-        <f>SUM(F5,F6)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
-        <v>1440.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4768</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F6" s="8">
-        <f>D6*E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>44172</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="20">
-        <v>9518</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="D10" s="20">
         <f t="shared" si="0"/>
         <v>615</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E10" s="21">
         <v>4.71</v>
       </c>
-      <c r="F7" s="22">
-        <f>D7*E7</f>
+      <c r="F10" s="22">
+        <f>D10*E10</f>
         <v>2896.65</v>
       </c>
-      <c r="G7" s="23">
-        <f>SUM(F7,F8)</f>
+      <c r="G10" s="23">
+        <f>SUM(F10,F11)</f>
         <v>3707.55</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H10" s="24">
         <v>3707.55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C11" s="20">
         <v>4768</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D11" s="20">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E11" s="21">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F8" s="22">
-        <f>D8*E8</f>
+      <c r="F11" s="22">
+        <f>D11*E11</f>
         <v>810.9</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>44160</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8903</v>
-      </c>
-      <c r="D9" s="2">
-        <f>SUM(C9,-C12)</f>
-        <v>411</v>
-      </c>
-      <c r="E9" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F9" s="8">
-        <f>D9*E9</f>
-        <v>1935.81</v>
-      </c>
-      <c r="G9" s="10">
-        <f>SUM(F9,F10)</f>
-        <v>2374.41</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2374.41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4450</v>
-      </c>
-      <c r="D10" s="2">
-        <f>SUM(C10,-C13)</f>
-        <v>172</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F10" s="8">
-        <f>D10*E10</f>
-        <v>438.59999999999997</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>44158</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>654.53</v>
-      </c>
-      <c r="H11" s="9"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>8492</v>
+        <v>8903</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C14)</f>
-        <v>1164</v>
+        <f>SUM(C12,-C15)</f>
+        <v>411</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f>D12*E12</f>
-        <v>5482.44</v>
-      </c>
-      <c r="G12" s="17">
+        <v>1935.81</v>
+      </c>
+      <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>7114.44</v>
-      </c>
-      <c r="H12" s="18">
-        <v>6781.56</v>
+        <v>2374.41</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2374.41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,124 +912,124 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>4278</v>
+        <v>4450</v>
       </c>
       <c r="D13" s="2">
-        <f>SUM(C13,-C15)</f>
-        <v>640</v>
+        <f>SUM(C13,-C16)</f>
+        <v>172</v>
       </c>
       <c r="E13" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f>D13*E13</f>
-        <v>1632</v>
+        <v>438.59999999999997</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44025</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>7328</v>
-      </c>
-      <c r="D14" s="2">
-        <f>SUM(C14,-C17)</f>
-        <v>502</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="8">
-        <f>D14*E14</f>
-        <v>2253.98</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>2902.79</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2902.79</v>
-      </c>
+      <c r="A14" s="11">
+        <v>44158</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>654.53</v>
+      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>44158</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>3638</v>
+        <v>8492</v>
       </c>
       <c r="D15" s="2">
-        <f>SUM(C15,-C18)</f>
-        <v>267</v>
+        <f>SUM(C15,-C17)</f>
+        <v>1164</v>
       </c>
       <c r="E15" s="6">
-        <v>2.4300000000000002</v>
+        <v>4.71</v>
       </c>
       <c r="F15" s="8">
         <f>D15*E15</f>
-        <v>648.81000000000006</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+        <v>5482.44</v>
+      </c>
+      <c r="G15" s="17">
+        <f>SUM(F15,F16)</f>
+        <v>7114.44</v>
+      </c>
+      <c r="H15" s="18">
+        <v>6781.56</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>43979</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>483.64</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4278</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(C16,-C18)</f>
+        <v>640</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="8">
+        <f>D16*E16</f>
+        <v>1632</v>
+      </c>
+      <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>43979</v>
+        <v>44025</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>6826</v>
+        <v>7328</v>
       </c>
       <c r="D17" s="2">
-        <f>SUM(C17,-C19)</f>
-        <v>789</v>
+        <f>SUM(C17,-C20)</f>
+        <v>502</v>
       </c>
       <c r="E17" s="6">
         <v>4.49</v>
       </c>
       <c r="F17" s="8">
         <f>D17*E17</f>
-        <v>3542.61</v>
+        <v>2253.98</v>
       </c>
       <c r="G17" s="10">
         <f>SUM(F17,F18)</f>
-        <v>4478.16</v>
+        <v>2902.79</v>
       </c>
       <c r="H17" s="9">
-        <v>4478.16</v>
+        <v>2902.79</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,83 +1038,158 @@
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>3371</v>
+        <v>3638</v>
       </c>
       <c r="D18" s="2">
-        <f>SUM(C18,-C20)</f>
-        <v>385</v>
+        <f>SUM(C18,-C21)</f>
+        <v>267</v>
       </c>
       <c r="E18" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F18" s="8">
         <f>D18*E18</f>
-        <v>935.55000000000007</v>
+        <v>648.81000000000006</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>43829</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>6037</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
+      <c r="A19" s="11">
+        <v>43979</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>483.64</v>
+      </c>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3">
+        <v>43979</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>2986</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+        <v>6826</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM(C20,-C22)</f>
+        <v>789</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="8">
+        <f>D20*E20</f>
+        <v>3542.61</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>4478.16</v>
+      </c>
+      <c r="H20" s="9">
+        <v>4478.16</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3371</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM(C21,-C23)</f>
+        <v>385</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <f>D21*E21</f>
+        <v>935.55000000000007</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="9" t="s">
+      <c r="A22" s="3">
+        <v>43829</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6037</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2986</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="10">
-        <f>SUM(G2:G21)</f>
-        <v>30883.01</v>
-      </c>
-      <c r="H22" s="10">
-        <f>SUM(H2:H21)</f>
+      <c r="G25" s="10">
+        <f>SUM(G5:G24)</f>
+        <v>30952.170000000002</v>
+      </c>
+      <c r="H25" s="10">
+        <f>SUM(H5:H24)</f>
         <v>33792.680000000008</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="9" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10">
-        <f>SUM(H22,-G22)</f>
-        <v>2909.6700000000092</v>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10">
+        <f>SUM(H25,-G25)</f>
+        <v>2840.5100000000057</v>
       </c>
     </row>
   </sheetData>
